--- a/uploads/BABADAN-JUNI.xlsx
+++ b/uploads/BABADAN-JUNI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMP\fe\water-app\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{613106F0-D655-4B9F-BF2B-83F6F930D531}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B7B0B4B-BA92-4C52-B70E-8B420695FF2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C77DF58-AF40-4653-BABD-7234DD8ABC79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0127E04-072F-444C-8B77-36EDC3566DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,53 +25,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="178">
   <si>
     <t>ABDUR</t>
   </si>
   <si>
+    <t>LUNAS</t>
+  </si>
+  <si>
+    <t>ADIB  BAHRU</t>
+  </si>
+  <si>
+    <t>AGUS</t>
+  </si>
+  <si>
+    <t>AMIN</t>
+  </si>
+  <si>
+    <t>ANANG</t>
+  </si>
+  <si>
+    <t>ANIS</t>
+  </si>
+  <si>
+    <t>ARIF</t>
+  </si>
+  <si>
+    <t>AGUNG</t>
+  </si>
+  <si>
+    <t>AGUS TARI</t>
+  </si>
+  <si>
+    <t>ARIFUDIN</t>
+  </si>
+  <si>
+    <t>AMBAR</t>
+  </si>
+  <si>
+    <t>ADI  MASRUKIN</t>
+  </si>
+  <si>
+    <t>BAHRUDIN</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>ADIB  BAHRU</t>
-  </si>
-  <si>
-    <t>AGUS</t>
-  </si>
-  <si>
-    <t>AMIN</t>
-  </si>
-  <si>
-    <t>ANANG</t>
-  </si>
-  <si>
-    <t>ANIS</t>
-  </si>
-  <si>
-    <t>ARIF</t>
-  </si>
-  <si>
-    <t>AGUNG</t>
-  </si>
-  <si>
-    <t>LUNAS</t>
-  </si>
-  <si>
-    <t>AGUS TARI</t>
-  </si>
-  <si>
-    <t>ARIFUDIN</t>
-  </si>
-  <si>
-    <t>AMBAR</t>
-  </si>
-  <si>
-    <t>ADI  MASRUKIN</t>
-  </si>
-  <si>
-    <t>BAHRUDIN</t>
-  </si>
-  <si>
     <t>BARI</t>
   </si>
   <si>
@@ -252,7 +252,7 @@
     <t>NARDI</t>
   </si>
   <si>
-    <t>NASOKA</t>
+    <t>INSIYAH</t>
   </si>
   <si>
     <t>NASOKA KOLAM</t>
@@ -913,15 +913,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7538A410-AEF7-4D6F-8E3C-45B8B8E492B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B923FA6-5F48-4BFD-A634-D8CFE5224C2B}">
   <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -941,6 +942,12 @@
       <c r="E1">
         <v>66000</v>
       </c>
+      <c r="F1" s="1">
+        <v>45096</v>
+      </c>
+      <c r="G1">
+        <v>66000</v>
+      </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
@@ -961,6 +968,12 @@
       <c r="E2">
         <v>20000</v>
       </c>
+      <c r="F2" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G2">
+        <v>20000</v>
+      </c>
       <c r="H2" t="s">
         <v>1</v>
       </c>
@@ -981,6 +994,12 @@
       <c r="E3">
         <v>86000</v>
       </c>
+      <c r="F3" s="1">
+        <v>45099</v>
+      </c>
+      <c r="G3">
+        <v>86000</v>
+      </c>
       <c r="H3" t="s">
         <v>1</v>
       </c>
@@ -1001,6 +1020,12 @@
       <c r="E4">
         <v>46000</v>
       </c>
+      <c r="F4" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G4">
+        <v>46000</v>
+      </c>
       <c r="H4" t="s">
         <v>1</v>
       </c>
@@ -1021,6 +1046,12 @@
       <c r="E5">
         <v>34000</v>
       </c>
+      <c r="F5" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G5">
+        <v>34000</v>
+      </c>
       <c r="H5" t="s">
         <v>1</v>
       </c>
@@ -1035,6 +1066,12 @@
       <c r="E6">
         <v>46000</v>
       </c>
+      <c r="F6" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G6">
+        <v>46000</v>
+      </c>
       <c r="H6" t="s">
         <v>1</v>
       </c>
@@ -1055,6 +1092,12 @@
       <c r="E7">
         <v>44000</v>
       </c>
+      <c r="F7" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G7">
+        <v>44000</v>
+      </c>
       <c r="H7" t="s">
         <v>1</v>
       </c>
@@ -1082,12 +1125,12 @@
         <v>20000</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>261</v>
@@ -1108,12 +1151,12 @@
         <v>30000</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>201</v>
@@ -1127,13 +1170,19 @@
       <c r="E10">
         <v>60000</v>
       </c>
+      <c r="F10" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G10">
+        <v>60000</v>
+      </c>
       <c r="H10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>159</v>
@@ -1154,12 +1203,12 @@
         <v>20000</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>143</v>
@@ -1180,12 +1229,12 @@
         <v>52000</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1818</v>
@@ -1200,7 +1249,7 @@
         <v>50000</v>
       </c>
       <c r="H13" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1219,6 +1268,12 @@
       <c r="E14">
         <v>36000</v>
       </c>
+      <c r="F14" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G14">
+        <v>36000</v>
+      </c>
       <c r="H14" t="s">
         <v>1</v>
       </c>
@@ -1239,6 +1294,12 @@
       <c r="E15">
         <v>28000</v>
       </c>
+      <c r="F15" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G15">
+        <v>28000</v>
+      </c>
       <c r="H15" t="s">
         <v>1</v>
       </c>
@@ -1259,6 +1320,12 @@
       <c r="E16">
         <v>40000</v>
       </c>
+      <c r="F16" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G16">
+        <v>40000</v>
+      </c>
       <c r="H16" t="s">
         <v>1</v>
       </c>
@@ -1279,6 +1346,12 @@
       <c r="E17">
         <v>32000</v>
       </c>
+      <c r="F17" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G17">
+        <v>32000</v>
+      </c>
       <c r="H17" t="s">
         <v>1</v>
       </c>
@@ -1299,6 +1372,12 @@
       <c r="E18">
         <v>26000</v>
       </c>
+      <c r="F18" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G18">
+        <v>26000</v>
+      </c>
       <c r="H18" t="s">
         <v>1</v>
       </c>
@@ -1319,6 +1398,12 @@
       <c r="E19">
         <v>78000</v>
       </c>
+      <c r="F19" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G19">
+        <v>78000</v>
+      </c>
       <c r="H19" t="s">
         <v>1</v>
       </c>
@@ -1339,6 +1424,12 @@
       <c r="E20">
         <v>32000</v>
       </c>
+      <c r="F20" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G20">
+        <v>32000</v>
+      </c>
       <c r="H20" t="s">
         <v>1</v>
       </c>
@@ -1359,6 +1450,12 @@
       <c r="E21">
         <v>28000</v>
       </c>
+      <c r="F21" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G21">
+        <v>28000</v>
+      </c>
       <c r="H21" t="s">
         <v>1</v>
       </c>
@@ -1386,7 +1483,7 @@
         <v>40000</v>
       </c>
       <c r="H22" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1405,6 +1502,12 @@
       <c r="E23">
         <v>26000</v>
       </c>
+      <c r="F23" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G23">
+        <v>26000</v>
+      </c>
       <c r="H23" t="s">
         <v>1</v>
       </c>
@@ -1425,6 +1528,12 @@
       <c r="E24">
         <v>38000</v>
       </c>
+      <c r="F24" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G24">
+        <v>38000</v>
+      </c>
       <c r="H24" t="s">
         <v>1</v>
       </c>
@@ -1452,7 +1561,7 @@
         <v>26000</v>
       </c>
       <c r="H25" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1472,7 +1581,7 @@
         <v>48000</v>
       </c>
       <c r="H26" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1491,6 +1600,12 @@
       <c r="E27">
         <v>32000</v>
       </c>
+      <c r="F27" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G27">
+        <v>32000</v>
+      </c>
       <c r="H27" t="s">
         <v>1</v>
       </c>
@@ -1518,7 +1633,7 @@
         <v>74000</v>
       </c>
       <c r="H28" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1537,6 +1652,12 @@
       <c r="E29">
         <v>68000</v>
       </c>
+      <c r="F29" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G29">
+        <v>68000</v>
+      </c>
       <c r="H29" t="s">
         <v>1</v>
       </c>
@@ -1564,7 +1685,7 @@
         <v>62000</v>
       </c>
       <c r="H30" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1583,6 +1704,12 @@
       <c r="E31">
         <v>26000</v>
       </c>
+      <c r="F31" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G31">
+        <v>26000</v>
+      </c>
       <c r="H31" t="s">
         <v>1</v>
       </c>
@@ -1603,6 +1730,12 @@
       <c r="E32">
         <v>90000</v>
       </c>
+      <c r="F32" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G32">
+        <v>90000</v>
+      </c>
       <c r="H32" t="s">
         <v>1</v>
       </c>
@@ -1623,6 +1756,12 @@
       <c r="E33">
         <v>26000</v>
       </c>
+      <c r="F33" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G33">
+        <v>26000</v>
+      </c>
       <c r="H33" t="s">
         <v>1</v>
       </c>
@@ -1644,7 +1783,7 @@
         <v>70000</v>
       </c>
       <c r="H34" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1670,7 +1809,7 @@
         <v>20000</v>
       </c>
       <c r="H35" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1689,6 +1828,12 @@
       <c r="E36">
         <v>52000</v>
       </c>
+      <c r="F36" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G36">
+        <v>52000</v>
+      </c>
       <c r="H36" t="s">
         <v>1</v>
       </c>
@@ -1716,7 +1861,7 @@
         <v>30000</v>
       </c>
       <c r="H37" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1729,8 +1874,17 @@
       <c r="C38">
         <v>2579</v>
       </c>
+      <c r="D38">
+        <v>28</v>
+      </c>
       <c r="E38">
-        <v>16000</v>
+        <v>72000</v>
+      </c>
+      <c r="F38" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G38">
+        <v>72000</v>
       </c>
       <c r="H38" t="s">
         <v>1</v>
@@ -1752,6 +1906,12 @@
       <c r="E39">
         <v>58000</v>
       </c>
+      <c r="F39" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G39">
+        <v>58000</v>
+      </c>
       <c r="H39" t="s">
         <v>1</v>
       </c>
@@ -1779,7 +1939,7 @@
         <v>60000</v>
       </c>
       <c r="H40" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1805,7 +1965,7 @@
         <v>52000</v>
       </c>
       <c r="H41" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1825,7 +1985,7 @@
         <v>48000</v>
       </c>
       <c r="H42" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1851,7 +2011,7 @@
         <v>40000</v>
       </c>
       <c r="H43" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1870,6 +2030,12 @@
       <c r="E44">
         <v>82000</v>
       </c>
+      <c r="F44" s="1">
+        <v>45099</v>
+      </c>
+      <c r="G44">
+        <v>82000</v>
+      </c>
       <c r="H44" t="s">
         <v>1</v>
       </c>
@@ -1897,7 +2063,7 @@
         <v>78000</v>
       </c>
       <c r="H45" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1916,6 +2082,12 @@
       <c r="E46">
         <v>42000</v>
       </c>
+      <c r="F46" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G46">
+        <v>42000</v>
+      </c>
       <c r="H46" t="s">
         <v>1</v>
       </c>
@@ -1943,7 +2115,7 @@
         <v>28000</v>
       </c>
       <c r="H47" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -1969,7 +2141,7 @@
         <v>28000</v>
       </c>
       <c r="H48" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -1988,6 +2160,12 @@
       <c r="E49">
         <v>38000</v>
       </c>
+      <c r="F49" s="1">
+        <v>45099</v>
+      </c>
+      <c r="G49">
+        <v>38000</v>
+      </c>
       <c r="H49" t="s">
         <v>1</v>
       </c>
@@ -2008,6 +2186,12 @@
       <c r="E50">
         <v>80000</v>
       </c>
+      <c r="F50" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G50">
+        <v>80000</v>
+      </c>
       <c r="H50" t="s">
         <v>1</v>
       </c>
@@ -2035,7 +2219,7 @@
         <v>60000</v>
       </c>
       <c r="H51" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2071,6 +2255,12 @@
       <c r="E53">
         <v>40000</v>
       </c>
+      <c r="F53" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G53">
+        <v>40000</v>
+      </c>
       <c r="H53" t="s">
         <v>1</v>
       </c>
@@ -2098,7 +2288,7 @@
         <v>26000</v>
       </c>
       <c r="H54" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2124,7 +2314,7 @@
         <v>50000</v>
       </c>
       <c r="H55" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2150,7 +2340,7 @@
         <v>32000</v>
       </c>
       <c r="H56" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2169,6 +2359,12 @@
       <c r="E57">
         <v>50000</v>
       </c>
+      <c r="F57" s="1">
+        <v>45099</v>
+      </c>
+      <c r="G57">
+        <v>50000</v>
+      </c>
       <c r="H57" t="s">
         <v>1</v>
       </c>
@@ -2189,6 +2385,12 @@
       <c r="E58">
         <v>42000</v>
       </c>
+      <c r="F58" s="1">
+        <v>45099</v>
+      </c>
+      <c r="G58">
+        <v>42000</v>
+      </c>
       <c r="H58" t="s">
         <v>1</v>
       </c>
@@ -2209,6 +2411,12 @@
       <c r="E59">
         <v>68000</v>
       </c>
+      <c r="F59" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G59">
+        <v>68000</v>
+      </c>
       <c r="H59" t="s">
         <v>1</v>
       </c>
@@ -2230,13 +2438,13 @@
         <v>38000</v>
       </c>
       <c r="F60" s="1">
-        <v>45078</v>
+        <v>45083</v>
       </c>
       <c r="G60">
         <v>38000</v>
       </c>
       <c r="H60" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2255,6 +2463,12 @@
       <c r="E61">
         <v>62000</v>
       </c>
+      <c r="F61" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G61">
+        <v>62000</v>
+      </c>
       <c r="H61" t="s">
         <v>1</v>
       </c>
@@ -2275,6 +2489,12 @@
       <c r="E62">
         <v>28000</v>
       </c>
+      <c r="F62" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G62">
+        <v>28000</v>
+      </c>
       <c r="H62" t="s">
         <v>1</v>
       </c>
@@ -2295,6 +2515,12 @@
       <c r="E63">
         <v>36000</v>
       </c>
+      <c r="F63" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G63">
+        <v>36000</v>
+      </c>
       <c r="H63" t="s">
         <v>1</v>
       </c>
@@ -2315,6 +2541,12 @@
       <c r="E64">
         <v>40000</v>
       </c>
+      <c r="F64" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G64">
+        <v>40000</v>
+      </c>
       <c r="H64" t="s">
         <v>1</v>
       </c>
@@ -2335,6 +2567,12 @@
       <c r="E65">
         <v>66000</v>
       </c>
+      <c r="F65" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G65">
+        <v>66000</v>
+      </c>
       <c r="H65" t="s">
         <v>1</v>
       </c>
@@ -2356,7 +2594,7 @@
         <v>30000</v>
       </c>
       <c r="H66" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2382,7 +2620,7 @@
         <v>92000</v>
       </c>
       <c r="H67" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2408,7 +2646,7 @@
         <v>54000</v>
       </c>
       <c r="H68" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2434,7 +2672,7 @@
         <v>36000</v>
       </c>
       <c r="H69" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2454,7 +2692,7 @@
         <v>36000</v>
       </c>
       <c r="H70" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2480,7 +2718,7 @@
         <v>38000</v>
       </c>
       <c r="H71" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -2499,8 +2737,14 @@
       <c r="E72">
         <v>304000</v>
       </c>
+      <c r="F72" s="1">
+        <v>45099</v>
+      </c>
+      <c r="G72">
+        <v>384000</v>
+      </c>
       <c r="H72" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2520,7 +2764,7 @@
         <v>86000</v>
       </c>
       <c r="H73" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2540,7 +2784,7 @@
         <v>84000</v>
       </c>
       <c r="H74" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2559,6 +2803,12 @@
       <c r="E75">
         <v>96000</v>
       </c>
+      <c r="F75" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G75">
+        <v>96000</v>
+      </c>
       <c r="H75" t="s">
         <v>1</v>
       </c>
@@ -2579,6 +2829,12 @@
       <c r="E76">
         <v>62000</v>
       </c>
+      <c r="F76" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G76">
+        <v>62000</v>
+      </c>
       <c r="H76" t="s">
         <v>1</v>
       </c>
@@ -2600,7 +2856,7 @@
         <v>16000</v>
       </c>
       <c r="H77" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2626,7 +2882,7 @@
         <v>24000</v>
       </c>
       <c r="H78" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2646,7 +2902,7 @@
         <v>24000</v>
       </c>
       <c r="H79" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -2672,7 +2928,7 @@
         <v>38000</v>
       </c>
       <c r="H80" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2698,7 +2954,7 @@
         <v>36000</v>
       </c>
       <c r="H81" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2724,7 +2980,7 @@
         <v>40000</v>
       </c>
       <c r="H82" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -2743,6 +2999,12 @@
       <c r="E83">
         <v>22000</v>
       </c>
+      <c r="F83" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G83">
+        <v>22000</v>
+      </c>
       <c r="H83" t="s">
         <v>1</v>
       </c>
@@ -2763,6 +3025,12 @@
       <c r="E84">
         <v>54000</v>
       </c>
+      <c r="F84" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G84">
+        <v>54000</v>
+      </c>
       <c r="H84" t="s">
         <v>1</v>
       </c>
@@ -2790,7 +3058,7 @@
         <v>22000</v>
       </c>
       <c r="H85" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -2816,7 +3084,7 @@
         <v>30000</v>
       </c>
       <c r="H86" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -2842,7 +3110,7 @@
         <v>70000</v>
       </c>
       <c r="H87" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -2861,6 +3129,12 @@
       <c r="E88">
         <v>56000</v>
       </c>
+      <c r="F88" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G88">
+        <v>56000</v>
+      </c>
       <c r="H88" t="s">
         <v>1</v>
       </c>
@@ -2881,6 +3155,12 @@
       <c r="E89">
         <v>26000</v>
       </c>
+      <c r="F89" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G89">
+        <v>26000</v>
+      </c>
       <c r="H89" t="s">
         <v>1</v>
       </c>
@@ -2901,6 +3181,12 @@
       <c r="E90">
         <v>42000</v>
       </c>
+      <c r="F90" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G90">
+        <v>42000</v>
+      </c>
       <c r="H90" t="s">
         <v>1</v>
       </c>
@@ -2921,6 +3207,12 @@
       <c r="E91">
         <v>26000</v>
       </c>
+      <c r="F91" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G91">
+        <v>26000</v>
+      </c>
       <c r="H91" t="s">
         <v>1</v>
       </c>
@@ -2941,6 +3233,12 @@
       <c r="E92">
         <v>72000</v>
       </c>
+      <c r="F92" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G92">
+        <v>72000</v>
+      </c>
       <c r="H92" t="s">
         <v>1</v>
       </c>
@@ -2961,6 +3259,12 @@
       <c r="E93">
         <v>118000</v>
       </c>
+      <c r="F93" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G93">
+        <v>118000</v>
+      </c>
       <c r="H93" t="s">
         <v>1</v>
       </c>
@@ -2988,7 +3292,7 @@
         <v>22000</v>
       </c>
       <c r="H94" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -3014,7 +3318,7 @@
         <v>28000</v>
       </c>
       <c r="H95" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3033,6 +3337,12 @@
       <c r="E96">
         <v>26000</v>
       </c>
+      <c r="F96" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G96">
+        <v>26000</v>
+      </c>
       <c r="H96" t="s">
         <v>1</v>
       </c>
@@ -3060,7 +3370,7 @@
         <v>52000</v>
       </c>
       <c r="H97" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -3079,6 +3389,12 @@
       <c r="E98">
         <v>34000</v>
       </c>
+      <c r="F98" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G98">
+        <v>34000</v>
+      </c>
       <c r="H98" t="s">
         <v>1</v>
       </c>
@@ -3093,6 +3409,12 @@
       <c r="E99">
         <v>46000</v>
       </c>
+      <c r="F99" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G99">
+        <v>46000</v>
+      </c>
       <c r="H99" t="s">
         <v>1</v>
       </c>
@@ -3113,6 +3435,12 @@
       <c r="E100">
         <v>70000</v>
       </c>
+      <c r="F100" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G100">
+        <v>70000</v>
+      </c>
       <c r="H100" t="s">
         <v>1</v>
       </c>
@@ -3140,7 +3468,7 @@
         <v>50000</v>
       </c>
       <c r="H101" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -3166,7 +3494,7 @@
         <v>58000</v>
       </c>
       <c r="H102" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -3192,7 +3520,7 @@
         <v>22000</v>
       </c>
       <c r="H103" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -3218,7 +3546,7 @@
         <v>36000</v>
       </c>
       <c r="H104" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -3238,7 +3566,7 @@
         <v>48000</v>
       </c>
       <c r="H105" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -3257,6 +3585,12 @@
       <c r="E106">
         <v>20000</v>
       </c>
+      <c r="F106" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G106">
+        <v>20000</v>
+      </c>
       <c r="H106" t="s">
         <v>1</v>
       </c>
@@ -3277,6 +3611,12 @@
       <c r="E107">
         <v>72000</v>
       </c>
+      <c r="F107" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G107">
+        <v>72000</v>
+      </c>
       <c r="H107" t="s">
         <v>1</v>
       </c>
@@ -3297,6 +3637,12 @@
       <c r="E108">
         <v>38000</v>
       </c>
+      <c r="F108" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G108">
+        <v>38000</v>
+      </c>
       <c r="H108" t="s">
         <v>1</v>
       </c>
@@ -3317,6 +3663,12 @@
       <c r="E109">
         <v>28000</v>
       </c>
+      <c r="F109" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G109">
+        <v>28000</v>
+      </c>
       <c r="H109" t="s">
         <v>1</v>
       </c>
@@ -3344,7 +3696,7 @@
         <v>33000</v>
       </c>
       <c r="H110" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -3363,6 +3715,12 @@
       <c r="E111">
         <v>88000</v>
       </c>
+      <c r="F111" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G111">
+        <v>88000</v>
+      </c>
       <c r="H111" t="s">
         <v>1</v>
       </c>
@@ -3390,7 +3748,7 @@
         <v>68000</v>
       </c>
       <c r="H112" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -3409,6 +3767,12 @@
       <c r="E113">
         <v>132000</v>
       </c>
+      <c r="F113" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G113">
+        <v>132000</v>
+      </c>
       <c r="H113" t="s">
         <v>1</v>
       </c>
@@ -3429,6 +3793,12 @@
       <c r="E114">
         <v>38000</v>
       </c>
+      <c r="F114" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G114">
+        <v>38000</v>
+      </c>
       <c r="H114" t="s">
         <v>1</v>
       </c>
@@ -3449,6 +3819,12 @@
       <c r="E115">
         <v>70000</v>
       </c>
+      <c r="F115" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G115">
+        <v>70000</v>
+      </c>
       <c r="H115" t="s">
         <v>1</v>
       </c>
@@ -3469,6 +3845,12 @@
       <c r="E116">
         <v>42000</v>
       </c>
+      <c r="F116" s="1">
+        <v>45099</v>
+      </c>
+      <c r="G116">
+        <v>42000</v>
+      </c>
       <c r="H116" t="s">
         <v>1</v>
       </c>
@@ -3489,6 +3871,12 @@
       <c r="E117">
         <v>80000</v>
       </c>
+      <c r="F117" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G117">
+        <v>80000</v>
+      </c>
       <c r="H117" t="s">
         <v>1</v>
       </c>
@@ -3503,6 +3891,12 @@
       <c r="E118">
         <v>16000</v>
       </c>
+      <c r="F118" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G118">
+        <v>16000</v>
+      </c>
       <c r="H118" t="s">
         <v>1</v>
       </c>
@@ -3523,6 +3917,12 @@
       <c r="E119">
         <v>52000</v>
       </c>
+      <c r="F119" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G119">
+        <v>52000</v>
+      </c>
       <c r="H119" t="s">
         <v>1</v>
       </c>
@@ -3550,7 +3950,7 @@
         <v>36000</v>
       </c>
       <c r="H120" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -3569,6 +3969,12 @@
       <c r="E121">
         <v>20000</v>
       </c>
+      <c r="F121" s="1">
+        <v>45099</v>
+      </c>
+      <c r="G121">
+        <v>20000</v>
+      </c>
       <c r="H121" t="s">
         <v>1</v>
       </c>
@@ -3589,6 +3995,12 @@
       <c r="E122">
         <v>28000</v>
       </c>
+      <c r="F122" s="1">
+        <v>45091</v>
+      </c>
+      <c r="G122">
+        <v>28000</v>
+      </c>
       <c r="H122" t="s">
         <v>1</v>
       </c>
@@ -3610,7 +4022,7 @@
         <v>108000</v>
       </c>
       <c r="H123" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -3629,8 +4041,14 @@
       <c r="E124">
         <v>102000</v>
       </c>
+      <c r="F124" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G124">
+        <v>122000</v>
+      </c>
       <c r="H124" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -3649,6 +4067,12 @@
       <c r="E125">
         <v>60000</v>
       </c>
+      <c r="F125" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G125">
+        <v>60000</v>
+      </c>
       <c r="H125" t="s">
         <v>1</v>
       </c>
@@ -3670,7 +4094,7 @@
         <v>24000</v>
       </c>
       <c r="H126" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -3689,6 +4113,12 @@
       <c r="E127">
         <v>54000</v>
       </c>
+      <c r="F127" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G127">
+        <v>54000</v>
+      </c>
       <c r="H127" t="s">
         <v>1</v>
       </c>
@@ -3709,6 +4139,12 @@
       <c r="E128">
         <v>46000</v>
       </c>
+      <c r="F128" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G128">
+        <v>46000</v>
+      </c>
       <c r="H128" t="s">
         <v>1</v>
       </c>
@@ -3736,7 +4172,7 @@
         <v>70000</v>
       </c>
       <c r="H129" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -3762,7 +4198,7 @@
         <v>52000</v>
       </c>
       <c r="H130" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -3781,6 +4217,12 @@
       <c r="E131">
         <v>56000</v>
       </c>
+      <c r="F131" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G131">
+        <v>56000</v>
+      </c>
       <c r="H131" t="s">
         <v>1</v>
       </c>
@@ -3802,7 +4244,7 @@
         <v>46000</v>
       </c>
       <c r="H132" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -3822,7 +4264,7 @@
         <v>16000</v>
       </c>
       <c r="H133" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -3848,7 +4290,7 @@
         <v>36000</v>
       </c>
       <c r="H134" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -3867,6 +4309,12 @@
       <c r="E135">
         <v>32000</v>
       </c>
+      <c r="F135" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G135">
+        <v>32000</v>
+      </c>
       <c r="H135" t="s">
         <v>1</v>
       </c>
@@ -3894,7 +4342,7 @@
         <v>26000</v>
       </c>
       <c r="H136" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -3914,7 +4362,7 @@
         <v>32000</v>
       </c>
       <c r="H137" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -3934,7 +4382,7 @@
         <v>20000</v>
       </c>
       <c r="H138" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -3960,7 +4408,7 @@
         <v>50000</v>
       </c>
       <c r="H139" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -3979,6 +4427,12 @@
       <c r="E140">
         <v>30000</v>
       </c>
+      <c r="F140" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G140">
+        <v>30000</v>
+      </c>
       <c r="H140" t="s">
         <v>1</v>
       </c>
@@ -3999,6 +4453,12 @@
       <c r="E141">
         <v>56000</v>
       </c>
+      <c r="F141" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G141">
+        <v>56000</v>
+      </c>
       <c r="H141" t="s">
         <v>1</v>
       </c>
@@ -4019,6 +4479,12 @@
       <c r="E142">
         <v>40000</v>
       </c>
+      <c r="F142" s="1">
+        <v>45091</v>
+      </c>
+      <c r="G142">
+        <v>40000</v>
+      </c>
       <c r="H142" t="s">
         <v>1</v>
       </c>
@@ -4039,6 +4505,12 @@
       <c r="E143">
         <v>74000</v>
       </c>
+      <c r="F143" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G143">
+        <v>74000</v>
+      </c>
       <c r="H143" t="s">
         <v>1</v>
       </c>
@@ -4066,7 +4538,7 @@
         <v>58000</v>
       </c>
       <c r="H144" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -4086,7 +4558,7 @@
         <v>32000</v>
       </c>
       <c r="H145" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -4105,6 +4577,12 @@
       <c r="E146">
         <v>46000</v>
       </c>
+      <c r="F146" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G146">
+        <v>46000</v>
+      </c>
       <c r="H146" t="s">
         <v>1</v>
       </c>
@@ -4132,7 +4610,7 @@
         <v>40000</v>
       </c>
       <c r="H147" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -4158,7 +4636,7 @@
         <v>36000</v>
       </c>
       <c r="H148" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -4177,6 +4655,12 @@
       <c r="E149">
         <v>46000</v>
       </c>
+      <c r="F149" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G149">
+        <v>46000</v>
+      </c>
       <c r="H149" t="s">
         <v>1</v>
       </c>
@@ -4197,6 +4681,12 @@
       <c r="E150">
         <v>28000</v>
       </c>
+      <c r="F150" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G150">
+        <v>28000</v>
+      </c>
       <c r="H150" t="s">
         <v>1</v>
       </c>
@@ -4224,7 +4714,7 @@
         <v>44000</v>
       </c>
       <c r="H151" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -4243,6 +4733,12 @@
       <c r="E152">
         <v>24000</v>
       </c>
+      <c r="F152" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G152">
+        <v>24000</v>
+      </c>
       <c r="H152" t="s">
         <v>1</v>
       </c>
@@ -4263,6 +4759,12 @@
       <c r="E153">
         <v>76000</v>
       </c>
+      <c r="F153" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G153">
+        <v>76000</v>
+      </c>
       <c r="H153" t="s">
         <v>1</v>
       </c>
@@ -4284,7 +4786,7 @@
         <v>58000</v>
       </c>
       <c r="H154" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -4303,6 +4805,12 @@
       <c r="E155">
         <v>26000</v>
       </c>
+      <c r="F155" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G155">
+        <v>26000</v>
+      </c>
       <c r="H155" t="s">
         <v>1</v>
       </c>
@@ -4324,7 +4832,7 @@
         <v>30000</v>
       </c>
       <c r="H156" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -4350,7 +4858,7 @@
         <v>38000</v>
       </c>
       <c r="H157" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -4376,7 +4884,7 @@
         <v>42000</v>
       </c>
       <c r="H158" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -4402,7 +4910,7 @@
         <v>24000</v>
       </c>
       <c r="H159" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -4428,7 +4936,7 @@
         <v>18000</v>
       </c>
       <c r="H160" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -4448,7 +4956,7 @@
         <v>24000</v>
       </c>
       <c r="H161" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -4467,6 +4975,12 @@
       <c r="E162">
         <v>40000</v>
       </c>
+      <c r="F162" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G162">
+        <v>40000</v>
+      </c>
       <c r="H162" t="s">
         <v>1</v>
       </c>
@@ -4487,6 +5001,12 @@
       <c r="E163">
         <v>22000</v>
       </c>
+      <c r="F163" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G163">
+        <v>22000</v>
+      </c>
       <c r="H163" t="s">
         <v>1</v>
       </c>
@@ -4507,6 +5027,12 @@
       <c r="E164">
         <v>38000</v>
       </c>
+      <c r="F164" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G164">
+        <v>38000</v>
+      </c>
       <c r="H164" t="s">
         <v>1</v>
       </c>
@@ -4527,6 +5053,12 @@
       <c r="E165">
         <v>18000</v>
       </c>
+      <c r="F165" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G165">
+        <v>18000</v>
+      </c>
       <c r="H165" t="s">
         <v>1</v>
       </c>
@@ -4554,7 +5086,7 @@
         <v>62000</v>
       </c>
       <c r="H166" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -4573,6 +5105,12 @@
       <c r="E167">
         <v>28000</v>
       </c>
+      <c r="F167" s="1">
+        <v>45089</v>
+      </c>
+      <c r="G167">
+        <v>28000</v>
+      </c>
       <c r="H167" t="s">
         <v>1</v>
       </c>
@@ -4593,6 +5131,15 @@
       <c r="E168">
         <v>54000</v>
       </c>
+      <c r="F168" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G168">
+        <v>54000</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
@@ -4610,6 +5157,12 @@
       <c r="E169">
         <v>46000</v>
       </c>
+      <c r="F169" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G169">
+        <v>46000</v>
+      </c>
       <c r="H169" t="s">
         <v>1</v>
       </c>
@@ -4637,7 +5190,7 @@
         <v>48000</v>
       </c>
       <c r="H170" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -4657,7 +5210,7 @@
         <v>38000</v>
       </c>
       <c r="H171" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -4677,7 +5230,7 @@
         <v>20000</v>
       </c>
       <c r="H172" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -4697,7 +5250,7 @@
         <v>28000</v>
       </c>
       <c r="H173" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -4723,7 +5276,7 @@
         <v>38000</v>
       </c>
       <c r="H174" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -4742,6 +5295,12 @@
       <c r="E175">
         <v>42000</v>
       </c>
+      <c r="F175" s="1">
+        <v>45087</v>
+      </c>
+      <c r="G175">
+        <v>42000</v>
+      </c>
       <c r="H175" t="s">
         <v>1</v>
       </c>
@@ -4769,7 +5328,7 @@
         <v>22000</v>
       </c>
       <c r="H176" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
